--- a/src/test/java/com/eBanking/Testdata/Logindata.xlsx
+++ b/src/test/java/com/eBanking/Testdata/Logindata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834793B7-1F3B-449E-AC2C-5EF0BD75E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074BE770-C40A-4FD8-9FAF-F4354E127036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,10 +35,11 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>MGbhb</t>
-  </si>
-  <si>
-    <t>adf345c</t>
+    <t xml:space="preserve">mngr401000
+</t>
+  </si>
+  <si>
+    <t>ryhAdYt</t>
   </si>
   <si>
     <t>NMJyuj</t>
@@ -105,9 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +430,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,8 +447,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
